--- a/q1_dataFiles/03_Experimente_und_deskriptive_Statistik_Zusatzaufgabe_HoernchenFitness.xlsx
+++ b/q1_dataFiles/03_Experimente_und_deskriptive_Statistik_Zusatzaufgabe_HoernchenFitness.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4BC0F-5FA4-4254-84F8-C1D25CEDE7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6159A1-203F-4628-B756-B2E07E4F707C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,8 @@
     <sheet name="Lösung" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Lösung!$C$52:$C$91</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Lösung!$C$12:$C$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Lösung!$C$52:$C$91</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Lösung!$C$12:$C$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Lösung!$C$52:$C$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1258,7 +1257,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1320,7 +1319,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3704,15 +3703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1233487</xdr:colOff>
+      <xdr:colOff>1214437</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>728662</xdr:colOff>
+      <xdr:colOff>709612</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4234,7 +4233,7 @@
   <dimension ref="A2:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4364,9 +4363,10 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4375,9 +4375,10 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>7.4425235220340857</v>
-      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4392,9 +4393,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>8.8510633703130743</v>
-      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="F14" t="s">
         <v>0</v>
       </c>
@@ -4408,9 +4410,10 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>7.8748183494830677</v>
-      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="F15" t="s">
         <v>2</v>
       </c>
@@ -4424,9 +4427,10 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <v>8.5067845786212022</v>
-      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="F16" t="s">
         <v>11</v>
       </c>
@@ -4440,9 +4444,10 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
-        <v>6.0198729989023789</v>
-      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4451,9 +4456,10 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
-        <v>8.7078720059349362</v>
-      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="F18" t="s">
         <v>12</v>
       </c>
@@ -4467,9 +4473,10 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
-        <v>10.37455731310525</v>
-      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="F19" t="s">
         <v>18</v>
       </c>
@@ -4483,9 +4490,10 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
-        <v>10.297942889966533</v>
-      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="F20" t="s">
         <v>1</v>
       </c>
@@ -4499,9 +4507,10 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
-        <v>7.482999220573511</v>
-      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -4515,9 +4524,10 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
-        <v>3.964470246442958</v>
-      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="F22" t="s">
         <v>3</v>
       </c>
@@ -4531,9 +4541,10 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
-        <v>7.6214764290458232</v>
-      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="F23" t="s">
         <v>20</v>
       </c>
@@ -4547,9 +4558,10 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
-        <v>10.361144353019361</v>
-      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="F24" t="s">
         <v>13</v>
       </c>
@@ -4563,9 +4575,10 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
-        <v>8.2793117911697518</v>
-      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4574,9 +4587,10 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
-        <v>8.0881042822224671</v>
-      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4585,9 +4599,10 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
-        <v>6.7944443415978562</v>
-      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4596,9 +4611,10 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1">
-        <v>8.724357114583567</v>
-      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4607,9 +4623,10 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>7.0568842893241897</v>
-      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4618,9 +4635,10 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1">
-        <v>9.2227876735024026</v>
-      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4629,9 +4647,10 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
-        <v>6.9552132224652654</v>
-      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4640,658 +4659,718 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
-        <v>4.1818004977538603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1">
-        <v>8.5866944743905194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
-        <v>7.5767996075417479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1">
-        <v>5.9018685122306636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
-        <v>9.3234075486645924</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1">
-        <v>9.9064249390522399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1">
-        <v>6.888632836915721</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1">
-        <v>8.7887947165483666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1">
-        <v>8.0033534279443046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>31</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1">
-        <v>8.1664263937696688</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="1">
-        <v>8.0652031686612453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="1">
-        <v>6.5281324805551151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
-        <v>6.622283315700253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1">
-        <v>6.9236166660628768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1">
-        <v>7.6969180856718138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="1">
-        <v>7.1508968911795359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>39</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1">
-        <v>8.5618503726232085</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>40</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1">
-        <v>7.3610082756680386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>41</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="1">
-        <v>7.0639652602142533</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="1">
-        <v>4.6617409939854708</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="1">
-        <v>7.0369148819173137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="1">
-        <v>7.2086522972173128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>45</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="1">
-        <v>7.1065373993132024</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="1">
-        <v>7.6393204848985539</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>47</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="1">
-        <v>7.1628333695984905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>48</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="1">
-        <v>4.660146071116916</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="1">
-        <v>8.0480890240189176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="1">
-        <v>6.259335187835747</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>51</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="1">
-        <v>5.1283857162448738</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>52</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="1">
-        <v>5.3548108089956248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>53</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="1">
-        <v>7.5454055612725339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>54</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="1">
-        <v>4.0348504458673471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>55</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="1">
-        <v>5.1700447397500966</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>56</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="1">
-        <v>8.9051775914265416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>57</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="1">
-        <v>6.5649295619640711</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>58</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="1">
-        <v>8.2464390621504506</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>59</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="1">
-        <v>6.4160572578297845</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>60</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="1">
-        <v>9.1120784552038128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>61</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="1">
-        <v>8.7917394251744838</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>62</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="1">
-        <v>4.6165599228572258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>63</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="1">
-        <v>6.1900685252122249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>64</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="1">
-        <v>6.0454904082466854</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="1">
-        <v>7.4929156947539362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>66</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="1">
-        <v>2.2504841807156715</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>67</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="1">
-        <v>8.730005825978493</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>68</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="1">
-        <v>5.640241466733773</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>69</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="1">
-        <v>3.9243935792183242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>70</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="1">
-        <v>7.2539898298016841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>71</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="1">
-        <v>5.8015210716916865</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>72</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="1">
-        <v>3.4009886107702649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>73</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="1">
-        <v>4.4167760459334033</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>74</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="1">
-        <v>5.8380945162939639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>75</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="1">
-        <v>6.0635651068352505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>76</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="1">
-        <v>5.4279148300897955</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>77</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="1">
-        <v>4.3583470645629383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>78</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="1">
-        <v>3.7490812413429833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>79</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="1">
-        <v>5.517171644306015</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>80</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="1">
-        <v>6.8321294285549632</v>
-      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5304,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F32ED74-3F75-4C5F-8D18-7A769B408B1D}">
   <dimension ref="A2:S91"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/q1_dataFiles/03_Experimente_und_deskriptive_Statistik_Zusatzaufgabe_HoernchenFitness.xlsx
+++ b/q1_dataFiles/03_Experimente_und_deskriptive_Statistik_Zusatzaufgabe_HoernchenFitness.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6159A1-203F-4628-B756-B2E07E4F707C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39E9D0-1CA0-45B8-A128-87A176EA3230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5384,7 +5384,7 @@
   <dimension ref="A2:S91"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5582,8 +5582,8 @@
         <v>1.6761190291861734</v>
       </c>
       <c r="H15" s="4">
-        <f>AVERAGE($C$52:$C$91)</f>
-        <v>8</v>
+        <f>STDEV($C$52:$C$91)</f>
+        <v>1.5021352323976216</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5605,8 +5605,8 @@
         <v>2.8093750000000002</v>
       </c>
       <c r="H16" s="4">
-        <f>AVERAGE($C$52:$C$91)</f>
-        <v>8</v>
+        <f>_xlfn.VAR.P($C$52:$C$91)</f>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
